--- a/medicine/Handicap/Agénésie_du_corps_calleux/Agénésie_du_corps_calleux.xlsx
+++ b/medicine/Handicap/Agénésie_du_corps_calleux/Agénésie_du_corps_calleux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ag%C3%A9n%C3%A9sie_du_corps_calleux</t>
+          <t>Agénésie_du_corps_calleux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’agénésie du corps calleux est une maladie se définissant par l’absence de formation du corps calleux pendant le développement du fœtus. Cette absence peut être totale ou partielle. La formation du corps calleux commence normalement à partir de 5 semaines de vie in utero et se termine à 17 semaines.
 Cette absence de corps calleux peut être soit isolée, soit associée à d’autres pathologies.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ag%C3%A9n%C3%A9sie_du_corps_calleux</t>
+          <t>Agénésie_du_corps_calleux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Incidence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une agénésie du corps calleux, quelle qu'en soit la cause, serait observée dans 0,3 % à 0,7 % de la population[réf. souhaitée].
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ag%C3%A9n%C3%A9sie_du_corps_calleux</t>
+          <t>Agénésie_du_corps_calleux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Image du corps calleux en coupe sagittale(plan vertical, orienté d'avant en arrière) en IRM (imagerie par résonance magnétique).
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ag%C3%A9n%C3%A9sie_du_corps_calleux</t>
+          <t>Agénésie_du_corps_calleux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,11 +594,11 @@
           <t>Étiologie : causes et facteurs de la pathologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avant de porter le diagnostic d’agénésie isolée du corps calleux, il faut pratiquer une échographie à la recherche d’anomalie associée. Une étude du cerveau fœtal par IRM est indispensable. La vérification du caryotype (photo de l’arrangement standard de l'ensemble des chromosomes d'une cellule) sera effectuée[1].
-Syndromes associés avec l’agénésie du corps calleux
-Cette liste est non limitative.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avant de porter le diagnostic d’agénésie isolée du corps calleux, il faut pratiquer une échographie à la recherche d’anomalie associée. Une étude du cerveau fœtal par IRM est indispensable. La vérification du caryotype (photo de l’arrangement standard de l'ensemble des chromosomes d'une cellule) sera effectuée.
 </t>
         </is>
       </c>
@@ -593,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ag%C3%A9n%C3%A9sie_du_corps_calleux</t>
+          <t>Agénésie_du_corps_calleux</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,13 +624,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pronostic</t>
+          <t>Étiologie : causes et facteurs de la pathologie</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il est difficile de porter le pronostic des enfants porteurs d’une agénésie isolée du corps calleux. Un grand nombre d’épilepsies, retards de développement mental, manifestations psychotiques est trouvé parmi les enfants porteurs de cette pathologie, mais certains de ces enfants ont aussi un développement normal. Il n’existe aucun test ou examen qui permet de différencier les enfants qui auront un développement normal des autres.
-Le pronostic des agénésies partielles est tout aussi délicat, il dépend de la localisation et de l’étendue de l’agénésie.
+          <t>Syndromes associés avec l’agénésie du corps calleux</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette liste est non limitative.
 </t>
         </is>
       </c>
@@ -625,7 +646,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ag%C3%A9n%C3%A9sie_du_corps_calleux</t>
+          <t>Agénésie_du_corps_calleux</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,10 +661,46 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Pronostic</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est difficile de porter le pronostic des enfants porteurs d’une agénésie isolée du corps calleux. Un grand nombre d’épilepsies, retards de développement mental, manifestations psychotiques est trouvé parmi les enfants porteurs de cette pathologie, mais certains de ces enfants ont aussi un développement normal. Il n’existe aucun test ou examen qui permet de différencier les enfants qui auront un développement normal des autres.
+Le pronostic des agénésies partielles est tout aussi délicat, il dépend de la localisation et de l’étendue de l’agénésie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Agénésie_du_corps_calleux</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ag%C3%A9n%C3%A9sie_du_corps_calleux</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Risque de récurrence</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Il dépend de l’étiologie. En cas d’agénésie isolée du corps calleux, le risque de récurrence serait d'environ 2 % à 3 %.
 </t>
